--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Clcf1-Cntfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Clcf1-Cntfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.610331</v>
+        <v>1.758258666666666</v>
       </c>
       <c r="H2">
-        <v>1.830993</v>
+        <v>5.274775999999999</v>
       </c>
       <c r="I2">
-        <v>0.06059696746595619</v>
+        <v>0.1132279568112417</v>
       </c>
       <c r="J2">
-        <v>0.06059696746595618</v>
+        <v>0.1132279568112417</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.05473433333333333</v>
+        <v>0.009559333333333333</v>
       </c>
       <c r="N2">
-        <v>0.164203</v>
+        <v>0.028678</v>
       </c>
       <c r="O2">
-        <v>0.005873455178951466</v>
+        <v>0.001091248180460288</v>
       </c>
       <c r="P2">
-        <v>0.005873455178951466</v>
+        <v>0.001091248180460288</v>
       </c>
       <c r="Q2">
-        <v>0.03340606039766666</v>
+        <v>0.01680778068088888</v>
       </c>
       <c r="R2">
-        <v>0.300654543579</v>
+        <v>0.151270026128</v>
       </c>
       <c r="S2">
-        <v>0.0003559135723916739</v>
+        <v>0.0001235598018475035</v>
       </c>
       <c r="T2">
-        <v>0.0003559135723916738</v>
+        <v>0.0001235598018475035</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.610331</v>
+        <v>1.758258666666666</v>
       </c>
       <c r="H3">
-        <v>1.830993</v>
+        <v>5.274775999999999</v>
       </c>
       <c r="I3">
-        <v>0.06059696746595619</v>
+        <v>0.1132279568112417</v>
       </c>
       <c r="J3">
-        <v>0.06059696746595618</v>
+        <v>0.1132279568112417</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>25.503206</v>
       </c>
       <c r="O3">
-        <v>0.912236301167251</v>
+        <v>0.9704417024689271</v>
       </c>
       <c r="P3">
-        <v>0.912236301167251</v>
+        <v>0.9704417024689271</v>
       </c>
       <c r="Q3">
-        <v>5.188465740395333</v>
+        <v>14.94707765909511</v>
       </c>
       <c r="R3">
-        <v>46.696191663558</v>
+        <v>134.523698931856</v>
       </c>
       <c r="S3">
-        <v>0.05527875346309612</v>
+        <v>0.1098811311749795</v>
       </c>
       <c r="T3">
-        <v>0.05527875346309611</v>
+        <v>0.1098811311749795</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.610331</v>
+        <v>1.758258666666666</v>
       </c>
       <c r="H4">
-        <v>1.830993</v>
+        <v>5.274775999999999</v>
       </c>
       <c r="I4">
-        <v>0.06059696746595619</v>
+        <v>0.1132279568112417</v>
       </c>
       <c r="J4">
-        <v>0.06059696746595618</v>
+        <v>0.1132279568112417</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7631296666666666</v>
+        <v>0.1915436666666667</v>
       </c>
       <c r="N4">
-        <v>2.289389</v>
+        <v>0.574631</v>
       </c>
       <c r="O4">
-        <v>0.08189024365379753</v>
+        <v>0.02186571703696477</v>
       </c>
       <c r="P4">
-        <v>0.08189024365379755</v>
+        <v>0.02186571703696477</v>
       </c>
       <c r="Q4">
-        <v>0.4657616925863333</v>
+        <v>0.3367833119617777</v>
       </c>
       <c r="R4">
-        <v>4.191855233277</v>
+        <v>3.031049807656</v>
       </c>
       <c r="S4">
-        <v>0.004962300430468395</v>
+        <v>0.002475810464308278</v>
       </c>
       <c r="T4">
-        <v>0.004962300430468395</v>
+        <v>0.002475810464308278</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.690388333333333</v>
+        <v>1.758258666666666</v>
       </c>
       <c r="H5">
-        <v>8.071165000000001</v>
+        <v>5.274775999999999</v>
       </c>
       <c r="I5">
-        <v>0.2671163259047765</v>
+        <v>0.1132279568112417</v>
       </c>
       <c r="J5">
-        <v>0.2671163259047764</v>
+        <v>0.1132279568112417</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.05473433333333333</v>
+        <v>0.05782766666666667</v>
       </c>
       <c r="N5">
-        <v>0.164203</v>
+        <v>0.173483</v>
       </c>
       <c r="O5">
-        <v>0.005873455178951466</v>
+        <v>0.006601332313647817</v>
       </c>
       <c r="P5">
-        <v>0.005873455178951466</v>
+        <v>0.006601332313647817</v>
       </c>
       <c r="Q5">
-        <v>0.1472566118327778</v>
+        <v>0.1016759960897778</v>
       </c>
       <c r="R5">
-        <v>1.325309506495</v>
+        <v>0.9150839648079998</v>
       </c>
       <c r="S5">
-        <v>0.001568895767767897</v>
+        <v>0.0007474553701063691</v>
       </c>
       <c r="T5">
-        <v>0.001568895767767897</v>
+        <v>0.0007474553701063691</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,40 +791,40 @@
         <v>8.071165000000001</v>
       </c>
       <c r="I6">
-        <v>0.2671163259047765</v>
+        <v>0.1732550390834427</v>
       </c>
       <c r="J6">
-        <v>0.2671163259047764</v>
+        <v>0.1732550390834427</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>8.501068666666667</v>
+        <v>0.009559333333333333</v>
       </c>
       <c r="N6">
-        <v>25.503206</v>
+        <v>0.028678</v>
       </c>
       <c r="O6">
-        <v>0.912236301167251</v>
+        <v>0.001091248180460288</v>
       </c>
       <c r="P6">
-        <v>0.912236301167251</v>
+        <v>0.001091248180460288</v>
       </c>
       <c r="Q6">
-        <v>22.87117596166556</v>
+        <v>0.02571831887444444</v>
       </c>
       <c r="R6">
-        <v>205.84058365499</v>
+        <v>0.23146486987</v>
       </c>
       <c r="S6">
-        <v>0.2436732091247592</v>
+        <v>0.0001890642461553829</v>
       </c>
       <c r="T6">
-        <v>0.2436732091247592</v>
+        <v>0.0001890642461553829</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +853,10 @@
         <v>8.071165000000001</v>
       </c>
       <c r="I7">
-        <v>0.2671163259047765</v>
+        <v>0.1732550390834427</v>
       </c>
       <c r="J7">
-        <v>0.2671163259047764</v>
+        <v>0.1732550390834427</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.7631296666666666</v>
+        <v>8.501068666666667</v>
       </c>
       <c r="N7">
-        <v>2.289389</v>
+        <v>25.503206</v>
       </c>
       <c r="O7">
-        <v>0.08189024365379753</v>
+        <v>0.9704417024689271</v>
       </c>
       <c r="P7">
-        <v>0.08189024365379755</v>
+        <v>0.9704417024689271</v>
       </c>
       <c r="Q7">
-        <v>2.053115152020555</v>
+        <v>22.87117596166556</v>
       </c>
       <c r="R7">
-        <v>18.478036368185</v>
+        <v>205.84058365499</v>
       </c>
       <c r="S7">
-        <v>0.02187422101224933</v>
+        <v>0.1681339150894566</v>
       </c>
       <c r="T7">
-        <v>0.02187422101224933</v>
+        <v>0.1681339150894566</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.522893333333333</v>
+        <v>2.690388333333333</v>
       </c>
       <c r="H8">
-        <v>16.56868</v>
+        <v>8.071165000000001</v>
       </c>
       <c r="I8">
-        <v>0.5483427642344013</v>
+        <v>0.1732550390834427</v>
       </c>
       <c r="J8">
-        <v>0.5483427642344012</v>
+        <v>0.1732550390834427</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.05473433333333333</v>
+        <v>0.1915436666666667</v>
       </c>
       <c r="N8">
-        <v>0.164203</v>
+        <v>0.574631</v>
       </c>
       <c r="O8">
-        <v>0.005873455178951466</v>
+        <v>0.02186571703696477</v>
       </c>
       <c r="P8">
-        <v>0.005873455178951466</v>
+        <v>0.02186571703696477</v>
       </c>
       <c r="Q8">
-        <v>0.3022918846711111</v>
+        <v>0.5153268461238889</v>
       </c>
       <c r="R8">
-        <v>2.72062696204</v>
+        <v>4.637941615115</v>
       </c>
       <c r="S8">
-        <v>0.003220666648433107</v>
+        <v>0.00378834565982683</v>
       </c>
       <c r="T8">
-        <v>0.003220666648433106</v>
+        <v>0.00378834565982683</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.522893333333333</v>
+        <v>2.690388333333333</v>
       </c>
       <c r="H9">
-        <v>16.56868</v>
+        <v>8.071165000000001</v>
       </c>
       <c r="I9">
-        <v>0.5483427642344013</v>
+        <v>0.1732550390834427</v>
       </c>
       <c r="J9">
-        <v>0.5483427642344012</v>
+        <v>0.1732550390834427</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>8.501068666666667</v>
+        <v>0.05782766666666667</v>
       </c>
       <c r="N9">
-        <v>25.503206</v>
+        <v>0.173483</v>
       </c>
       <c r="O9">
-        <v>0.912236301167251</v>
+        <v>0.006601332313647817</v>
       </c>
       <c r="P9">
-        <v>0.912236301167251</v>
+        <v>0.006601332313647817</v>
       </c>
       <c r="Q9">
-        <v>46.95049546534222</v>
+        <v>0.1555788797438889</v>
       </c>
       <c r="R9">
-        <v>422.55445918808</v>
+        <v>1.400209917695</v>
       </c>
       <c r="S9">
-        <v>0.5002181750170162</v>
+        <v>0.001143714088003846</v>
       </c>
       <c r="T9">
-        <v>0.5002181750170162</v>
+        <v>0.001143714088003846</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,51 +1033,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.522893333333333</v>
+        <v>9.938311666666667</v>
       </c>
       <c r="H10">
-        <v>16.56868</v>
+        <v>29.814935</v>
       </c>
       <c r="I10">
-        <v>0.5483427642344013</v>
+        <v>0.6400052196548212</v>
       </c>
       <c r="J10">
-        <v>0.5483427642344012</v>
+        <v>0.640005219654821</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.7631296666666666</v>
+        <v>0.009559333333333333</v>
       </c>
       <c r="N10">
-        <v>2.289389</v>
+        <v>0.028678</v>
       </c>
       <c r="O10">
-        <v>0.08189024365379753</v>
+        <v>0.001091248180460288</v>
       </c>
       <c r="P10">
-        <v>0.08189024365379755</v>
+        <v>0.001091248180460288</v>
       </c>
       <c r="Q10">
-        <v>4.214683748502222</v>
+        <v>0.09500363399222223</v>
       </c>
       <c r="R10">
-        <v>37.93215373652</v>
+        <v>0.85503270593</v>
       </c>
       <c r="S10">
-        <v>0.04490392256895198</v>
+        <v>0.0006984045314334103</v>
       </c>
       <c r="T10">
-        <v>0.04490392256895197</v>
+        <v>0.0006984045314334102</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,51 +1095,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.24836</v>
+        <v>9.938311666666667</v>
       </c>
       <c r="H11">
-        <v>3.74508</v>
+        <v>29.814935</v>
       </c>
       <c r="I11">
-        <v>0.1239439423948662</v>
+        <v>0.6400052196548212</v>
       </c>
       <c r="J11">
-        <v>0.1239439423948662</v>
+        <v>0.640005219654821</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.05473433333333333</v>
+        <v>8.501068666666667</v>
       </c>
       <c r="N11">
-        <v>0.164203</v>
+        <v>25.503206</v>
       </c>
       <c r="O11">
-        <v>0.005873455178951466</v>
+        <v>0.9704417024689271</v>
       </c>
       <c r="P11">
-        <v>0.005873455178951466</v>
+        <v>0.9704417024689271</v>
       </c>
       <c r="Q11">
-        <v>0.06832815235999999</v>
+        <v>84.48626990906779</v>
       </c>
       <c r="R11">
-        <v>0.6149533712399999</v>
+        <v>760.37642918161</v>
       </c>
       <c r="S11">
-        <v>0.000727979190358789</v>
+        <v>0.6210877549508244</v>
       </c>
       <c r="T11">
-        <v>0.0007279791903587888</v>
+        <v>0.6210877549508242</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.24836</v>
+        <v>9.938311666666667</v>
       </c>
       <c r="H12">
-        <v>3.74508</v>
+        <v>29.814935</v>
       </c>
       <c r="I12">
-        <v>0.1239439423948662</v>
+        <v>0.6400052196548212</v>
       </c>
       <c r="J12">
-        <v>0.1239439423948662</v>
+        <v>0.640005219654821</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,33 +1175,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.501068666666667</v>
+        <v>0.1915436666666667</v>
       </c>
       <c r="N12">
-        <v>25.503206</v>
+        <v>0.574631</v>
       </c>
       <c r="O12">
-        <v>0.912236301167251</v>
+        <v>0.02186571703696477</v>
       </c>
       <c r="P12">
-        <v>0.912236301167251</v>
+        <v>0.02186571703696477</v>
       </c>
       <c r="Q12">
-        <v>10.61239408072</v>
+        <v>1.903620657109445</v>
       </c>
       <c r="R12">
-        <v>95.51154672647999</v>
+        <v>17.132585913985</v>
       </c>
       <c r="S12">
-        <v>0.1130661635623796</v>
+        <v>0.0139941730351528</v>
       </c>
       <c r="T12">
-        <v>0.1130661635623795</v>
+        <v>0.0139941730351528</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1210,55 +1210,303 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>9.938311666666667</v>
+      </c>
+      <c r="H13">
+        <v>29.814935</v>
+      </c>
+      <c r="I13">
+        <v>0.6400052196548212</v>
+      </c>
+      <c r="J13">
+        <v>0.640005219654821</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.05782766666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.173483</v>
+      </c>
+      <c r="O13">
+        <v>0.006601332313647817</v>
+      </c>
+      <c r="P13">
+        <v>0.006601332313647817</v>
+      </c>
+      <c r="Q13">
+        <v>0.5747093742894445</v>
+      </c>
+      <c r="R13">
+        <v>5.172384368605</v>
+      </c>
+      <c r="S13">
+        <v>0.004224887137410639</v>
+      </c>
+      <c r="T13">
+        <v>0.004224887137410639</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.141526666666667</v>
+      </c>
+      <c r="H14">
+        <v>3.42458</v>
+      </c>
+      <c r="I14">
+        <v>0.0735117844504946</v>
+      </c>
+      <c r="J14">
+        <v>0.07351178445049458</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.009559333333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.028678</v>
+      </c>
+      <c r="O14">
+        <v>0.001091248180460288</v>
+      </c>
+      <c r="P14">
+        <v>0.001091248180460288</v>
+      </c>
+      <c r="Q14">
+        <v>0.01091223391555555</v>
+      </c>
+      <c r="R14">
+        <v>0.09821010523999998</v>
+      </c>
+      <c r="S14">
+        <v>8.02196010239911E-05</v>
+      </c>
+      <c r="T14">
+        <v>8.021960102399109E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.141526666666667</v>
+      </c>
+      <c r="H15">
+        <v>3.42458</v>
+      </c>
+      <c r="I15">
+        <v>0.0735117844504946</v>
+      </c>
+      <c r="J15">
+        <v>0.07351178445049458</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>8.501068666666667</v>
+      </c>
+      <c r="N15">
+        <v>25.503206</v>
+      </c>
+      <c r="O15">
+        <v>0.9704417024689271</v>
+      </c>
+      <c r="P15">
+        <v>0.9704417024689271</v>
+      </c>
+      <c r="Q15">
+        <v>9.704196578164444</v>
+      </c>
+      <c r="R15">
+        <v>87.33776920347999</v>
+      </c>
+      <c r="S15">
+        <v>0.07133890125366678</v>
+      </c>
+      <c r="T15">
+        <v>0.07133890125366676</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.24836</v>
-      </c>
-      <c r="H13">
-        <v>3.74508</v>
-      </c>
-      <c r="I13">
-        <v>0.1239439423948662</v>
-      </c>
-      <c r="J13">
-        <v>0.1239439423948662</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.7631296666666666</v>
-      </c>
-      <c r="N13">
-        <v>2.289389</v>
-      </c>
-      <c r="O13">
-        <v>0.08189024365379753</v>
-      </c>
-      <c r="P13">
-        <v>0.08189024365379755</v>
-      </c>
-      <c r="Q13">
-        <v>0.9526605506799999</v>
-      </c>
-      <c r="R13">
-        <v>8.573944956119998</v>
-      </c>
-      <c r="S13">
-        <v>0.01014979964212784</v>
-      </c>
-      <c r="T13">
-        <v>0.01014979964212784</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.141526666666667</v>
+      </c>
+      <c r="H16">
+        <v>3.42458</v>
+      </c>
+      <c r="I16">
+        <v>0.0735117844504946</v>
+      </c>
+      <c r="J16">
+        <v>0.07351178445049458</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.1915436666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.574631</v>
+      </c>
+      <c r="O16">
+        <v>0.02186571703696477</v>
+      </c>
+      <c r="P16">
+        <v>0.02186571703696477</v>
+      </c>
+      <c r="Q16">
+        <v>0.2186522033311111</v>
+      </c>
+      <c r="R16">
+        <v>1.96786982998</v>
+      </c>
+      <c r="S16">
+        <v>0.001607387877676861</v>
+      </c>
+      <c r="T16">
+        <v>0.001607387877676861</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.141526666666667</v>
+      </c>
+      <c r="H17">
+        <v>3.42458</v>
+      </c>
+      <c r="I17">
+        <v>0.0735117844504946</v>
+      </c>
+      <c r="J17">
+        <v>0.07351178445049458</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.05782766666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.173483</v>
+      </c>
+      <c r="O17">
+        <v>0.006601332313647817</v>
+      </c>
+      <c r="P17">
+        <v>0.006601332313647817</v>
+      </c>
+      <c r="Q17">
+        <v>0.0660118235711111</v>
+      </c>
+      <c r="R17">
+        <v>0.5941064121399999</v>
+      </c>
+      <c r="S17">
+        <v>0.0004852757181269631</v>
+      </c>
+      <c r="T17">
+        <v>0.000485275718126963</v>
       </c>
     </row>
   </sheetData>
